--- a/data_excel/596.xlsx
+++ b/data_excel/596.xlsx
@@ -114,9 +114,6 @@
     <t>剩下</t>
   </si>
   <si>
-    <t>total</t>
-  </si>
-  <si>
     <t>28</t>
   </si>
   <si>
@@ -131,6 +128,10 @@
   </si>
   <si>
     <t>虛詞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>left</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -251,7 +252,18 @@
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -552,7 +564,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:C8"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -669,13 +681,13 @@
     </row>
     <row r="8" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -723,16 +735,16 @@
       <c r="A13" t="s">
         <v>30</v>
       </c>
-      <c r="B13" t="s">
-        <v>31</v>
+      <c r="B13" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B14" t="s">
         <v>18</v>
@@ -754,6 +766,9 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A8:C8">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data_excel/596.xlsx
+++ b/data_excel/596.xlsx
@@ -564,7 +564,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -690,7 +690,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -701,15 +701,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>26</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
       </c>
-      <c r="C10" t="s">
-        <v>8</v>
+      <c r="C10" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
